--- a/exio_class.xlsx
+++ b/exio_class.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,12 +14,12 @@
     <sheet name="act_rec" sheetId="8" r:id="rId5"/>
     <sheet name="act_all" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="313">
   <si>
     <t>('Water Consumption Blue', 'Mm3')</t>
   </si>
@@ -925,12 +925,6 @@
   </si>
   <si>
     <t>Waste recovery activities</t>
-  </si>
-  <si>
-    <t>Fossil derivates</t>
-  </si>
-  <si>
-    <t>fossil fuels</t>
   </si>
   <si>
     <t xml:space="preserve">This supplementary information includes 5 spreadsheets that provide the classification of domestic extraction used, waste and stock additions, products, an economic activities from EXIOBASE MR-HIOT v3.3.15 </t>
@@ -971,7 +965,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1038,23 +1032,12 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1066,6 +1049,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="1"/>
@@ -1128,7 +1123,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1163,7 +1158,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1384,92 +1379,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
+      <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C10" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D10" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" t="s">
         <v>310</v>
       </c>
-      <c r="C9" s="9" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D12" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1478,10 +1473,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,377 +1487,390 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="7">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="7">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="7">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="7">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="7">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="7">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="7">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="7">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="7">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="7">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="7">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="7">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="7">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="8"/>
+      <c r="B26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="7">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="7">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="7">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="7">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="7">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C39" s="7">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C40" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C41" s="7">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C42" s="7">
         <v>38</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A28:A36"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A2:A10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1871,650 +1879,715 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" style="3" customWidth="1"/>
-    <col min="3" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="32.42578125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="36.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" style="1" customWidth="1"/>
+    <col min="3" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="32.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="7">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="7">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="7">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="7">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="7">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="7">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="7">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="7">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="7">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="7">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="7">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="7">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="7">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="7">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="7">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="7">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="7">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="7">
         <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="7">
         <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
+      <c r="A34" s="8"/>
+      <c r="B34" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="7">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="8"/>
+      <c r="B35" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="7">
         <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
+      <c r="A36" s="8"/>
+      <c r="B36" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="7">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="8"/>
+      <c r="B37" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="7">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
+      <c r="A38" s="8"/>
+      <c r="B38" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="7">
         <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
+      <c r="A39" s="8"/>
+      <c r="B39" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="7">
         <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
+      <c r="A40" s="8"/>
+      <c r="B40" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="7">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
+      <c r="A41" s="8"/>
+      <c r="B41" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="6">
         <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
+      <c r="A42" s="8"/>
+      <c r="B42" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="6">
         <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
+      <c r="A44" s="8"/>
+      <c r="B44" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
+      <c r="A45" s="8"/>
+      <c r="B45" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="7">
         <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="s">
+      <c r="A46" s="8"/>
+      <c r="B46" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="7">
         <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="8"/>
+      <c r="B48" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="7">
         <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
+      <c r="A49" s="8"/>
+      <c r="B49" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="7">
         <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
+      <c r="A50" s="8"/>
+      <c r="B50" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="7">
         <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
+      <c r="A51" s="8"/>
+      <c r="B51" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="7">
         <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="3" t="s">
+      <c r="A52" s="8"/>
+      <c r="B52" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="3" t="s">
+      <c r="A53" s="8"/>
+      <c r="B53" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="7">
         <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="3" t="s">
+      <c r="A54" s="8"/>
+      <c r="B54" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="3" t="s">
+      <c r="A55" s="8"/>
+      <c r="B55" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="7">
         <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="3" t="s">
+      <c r="A56" s="8"/>
+      <c r="B56" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="7">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="3" t="s">
+      <c r="A57" s="8"/>
+      <c r="B57" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="7">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="3" t="s">
+      <c r="A58" s="8"/>
+      <c r="B58" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="7">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="3" t="s">
+      <c r="A59" s="8"/>
+      <c r="B59" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="7">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="3" t="s">
+      <c r="A60" s="8"/>
+      <c r="B60" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="7">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="3" t="s">
+      <c r="A61" s="8"/>
+      <c r="B61" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="7">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="3" t="s">
+      <c r="A62" s="8"/>
+      <c r="B62" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="7">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="7">
         <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="7">
         <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="3" t="s">
+      <c r="A65" s="8"/>
+      <c r="B65" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="7">
         <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="7">
         <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="3" t="s">
+      <c r="A67" s="8"/>
+      <c r="B67" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="7">
         <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
+      <c r="A74" s="3"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
+      <c r="A75" s="3"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
+      <c r="A76" s="3"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
+      <c r="A77" s="3"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
+      <c r="A78" s="3"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
+      <c r="A79" s="3"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
+      <c r="A80" s="3"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
+      <c r="A81" s="3"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
+      <c r="A82" s="3"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
+      <c r="A83" s="3"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
+      <c r="A84" s="3"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
+      <c r="A85" s="3"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
+      <c r="A86" s="3"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
+      <c r="A87" s="3"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="8"/>
+      <c r="A88" s="3"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="8"/>
+      <c r="A89" s="3"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
+      <c r="A90" s="3"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
+      <c r="A91" s="3"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="8"/>
+      <c r="A92" s="3"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="8"/>
+      <c r="A93" s="3"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
+      <c r="A94" s="3"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
+      <c r="A95" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A47:A62"/>
+    <mergeCell ref="A63:A67"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2525,210 +2598,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" t="s">
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" t="s">
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" t="s">
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" t="s">
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" t="s">
+    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C10">
+      <c r="C11" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" t="s">
+    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C11">
+      <c r="C12" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" t="s">
+    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C12">
+      <c r="C13" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C13">
+      <c r="C14" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C14">
+      <c r="C15" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C15">
+      <c r="C16" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C16">
+      <c r="C17" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C17">
+      <c r="C18" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="7">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22"/>
-      <c r="B22" t="s">
+    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="7">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
+    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A21:A22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2738,7 +2821,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2748,172 +2831,193 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="6">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="6">
         <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="6">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="6">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="6">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="6">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="6">
         <v>150</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2923,7 +3027,7 @@
   <dimension ref="A1:G165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2932,1334 +3036,1335 @@
     <col min="2" max="2" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="6">
         <v>0</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="6">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="6">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="6">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="6">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="6">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="6">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="6">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="6">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="6">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="6">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="6">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="6">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="6">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="6">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="6">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="6">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="6">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="6">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="6">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="6">
         <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="6">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="6">
         <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="6">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="6">
         <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="6">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="6">
         <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="6">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="6">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="6">
         <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="6">
         <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="6">
         <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="6">
         <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="6">
         <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B55" s="6">
         <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B56" s="11">
+      <c r="B56" s="6">
         <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B57" s="11">
+      <c r="B57" s="6">
         <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B58" s="6">
         <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="6">
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60" s="6">
         <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B61" s="11">
+      <c r="B61" s="6">
         <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B62" s="11">
+      <c r="B62" s="6">
         <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B63" s="6">
         <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B64" s="11">
+      <c r="B64" s="6">
         <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B65" s="11">
+      <c r="B65" s="6">
         <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B66" s="11">
+      <c r="B66" s="6">
         <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B67" s="11">
+      <c r="B67" s="6">
         <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B68" s="11">
+      <c r="B68" s="6">
         <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B69" s="11">
+      <c r="B69" s="6">
         <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B70" s="11">
+      <c r="B70" s="6">
         <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B71" s="11">
+      <c r="B71" s="6">
         <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B72" s="11">
+      <c r="B72" s="6">
         <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B73" s="11">
+      <c r="B73" s="6">
         <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B74" s="11">
+      <c r="B74" s="6">
         <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B75" s="11">
+      <c r="B75" s="6">
         <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B76" s="11">
+      <c r="B76" s="6">
         <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B77" s="11">
+      <c r="B77" s="6">
         <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B78" s="11">
+      <c r="B78" s="6">
         <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B79" s="11">
+      <c r="B79" s="6">
         <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B80" s="11">
+      <c r="B80" s="6">
         <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B81" s="11">
+      <c r="B81" s="6">
         <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B82" s="11">
+      <c r="B82" s="6">
         <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B83" s="11">
+      <c r="B83" s="6">
         <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B84" s="11">
+      <c r="B84" s="6">
         <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B85" s="11">
+      <c r="B85" s="6">
         <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B86" s="11">
+      <c r="B86" s="6">
         <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B87" s="11">
+      <c r="B87" s="6">
         <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B88" s="11">
+      <c r="B88" s="6">
         <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B89" s="11">
+      <c r="B89" s="6">
         <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B90" s="11">
+      <c r="B90" s="6">
         <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B91" s="11">
+      <c r="B91" s="6">
         <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B92" s="11">
+      <c r="B92" s="6">
         <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B93" s="11">
+      <c r="B93" s="6">
         <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
+      <c r="A94" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B94" s="11">
+      <c r="B94" s="6">
         <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="s">
+      <c r="A95" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B95" s="11">
+      <c r="B95" s="6">
         <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B96" s="11">
+      <c r="B96" s="6">
         <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B97" s="11">
+      <c r="B97" s="6">
         <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B98" s="11">
+      <c r="B98" s="6">
         <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B99" s="11">
+      <c r="B99" s="6">
         <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B100" s="11">
+      <c r="B100" s="6">
         <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B101" s="11">
+      <c r="B101" s="6">
         <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="11" t="s">
+      <c r="A102" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B102" s="11">
+      <c r="B102" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B103" s="11">
+      <c r="B103" s="6">
         <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="11" t="s">
+      <c r="A104" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B104" s="11">
+      <c r="B104" s="6">
         <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="11" t="s">
+      <c r="A105" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B105" s="11">
+      <c r="B105" s="6">
         <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B106" s="11">
+      <c r="B106" s="6">
         <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="s">
+      <c r="A107" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B107" s="11">
+      <c r="B107" s="6">
         <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="11" t="s">
+      <c r="A108" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B108" s="11">
+      <c r="B108" s="6">
         <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
+      <c r="A109" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B109" s="11">
+      <c r="B109" s="6">
         <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
+      <c r="A110" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B110" s="11">
+      <c r="B110" s="6">
         <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="11" t="s">
+      <c r="A111" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B111" s="11">
+      <c r="B111" s="6">
         <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
+      <c r="A112" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B112" s="11">
+      <c r="B112" s="6">
         <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
+      <c r="A113" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B113" s="11">
+      <c r="B113" s="6">
         <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="11" t="s">
+      <c r="A114" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B114" s="11">
+      <c r="B114" s="6">
         <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="11" t="s">
+      <c r="A115" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B115" s="11">
+      <c r="B115" s="6">
         <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="11" t="s">
+      <c r="A116" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B116" s="11">
+      <c r="B116" s="6">
         <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="11" t="s">
+      <c r="A117" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B117" s="11">
+      <c r="B117" s="6">
         <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="11" t="s">
+      <c r="A118" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B118" s="11">
+      <c r="B118" s="6">
         <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="s">
+      <c r="A119" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B119" s="11">
+      <c r="B119" s="6">
         <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="s">
+      <c r="A120" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B120" s="11">
+      <c r="B120" s="6">
         <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="11" t="s">
+      <c r="A121" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B121" s="11">
+      <c r="B121" s="6">
         <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="11" t="s">
+      <c r="A122" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B122" s="11">
+      <c r="B122" s="6">
         <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="11" t="s">
+      <c r="A123" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B123" s="11">
+      <c r="B123" s="6">
         <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="11" t="s">
+      <c r="A124" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="B124" s="11">
+      <c r="B124" s="6">
         <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="11" t="s">
+      <c r="A125" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="B125" s="11">
+      <c r="B125" s="6">
         <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="11" t="s">
+      <c r="A126" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B126" s="11">
+      <c r="B126" s="6">
         <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="11" t="s">
+      <c r="A127" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B127" s="11">
+      <c r="B127" s="6">
         <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="11" t="s">
+      <c r="A128" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B128" s="11">
+      <c r="B128" s="6">
         <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="11" t="s">
+      <c r="A129" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B129" s="11">
+      <c r="B129" s="6">
         <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="11" t="s">
+      <c r="A130" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B130" s="11">
+      <c r="B130" s="6">
         <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="11" t="s">
+      <c r="A131" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B131" s="11">
+      <c r="B131" s="6">
         <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="11" t="s">
+      <c r="A132" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B132" s="11">
+      <c r="B132" s="6">
         <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="11" t="s">
+      <c r="A133" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="B133" s="11">
+      <c r="B133" s="6">
         <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="11" t="s">
+      <c r="A134" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B134" s="11">
+      <c r="B134" s="6">
         <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="11" t="s">
+      <c r="A135" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="B135" s="11">
+      <c r="B135" s="6">
         <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="11" t="s">
+      <c r="A136" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B136" s="11">
+      <c r="B136" s="6">
         <v>134</v>
       </c>
-      <c r="G136" s="3"/>
+      <c r="G136" s="1"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="11" t="s">
+      <c r="A137" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B137" s="11">
+      <c r="B137" s="6">
         <v>135</v>
       </c>
-      <c r="G137" s="3"/>
+      <c r="G137" s="1"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="11" t="s">
+      <c r="A138" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B138" s="11">
+      <c r="B138" s="6">
         <v>136</v>
       </c>
-      <c r="G138" s="3"/>
+      <c r="G138" s="1"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="11" t="s">
+      <c r="A139" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B139" s="11">
+      <c r="B139" s="6">
         <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="11" t="s">
+      <c r="A140" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B140" s="11">
+      <c r="B140" s="6">
         <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="11" t="s">
+      <c r="A141" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B141" s="11">
+      <c r="B141" s="6">
         <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="11" t="s">
+      <c r="A142" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B142" s="11">
+      <c r="B142" s="6">
         <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="11" t="s">
+      <c r="A143" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B143" s="11">
+      <c r="B143" s="6">
         <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="11" t="s">
+      <c r="A144" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B144" s="11">
+      <c r="B144" s="6">
         <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="11" t="s">
+      <c r="A145" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B145" s="11">
+      <c r="B145" s="6">
         <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="11" t="s">
+      <c r="A146" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B146" s="11">
+      <c r="B146" s="6">
         <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="11" t="s">
+      <c r="A147" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B147" s="11">
+      <c r="B147" s="6">
         <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="11" t="s">
+      <c r="A148" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B148" s="11">
+      <c r="B148" s="6">
         <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="11" t="s">
+      <c r="A149" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B149" s="11">
+      <c r="B149" s="6">
         <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="11" t="s">
+      <c r="A150" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B150" s="11">
+      <c r="B150" s="6">
         <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="11" t="s">
+      <c r="A151" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B151" s="11">
+      <c r="B151" s="6">
         <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="11" t="s">
+      <c r="A152" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="B152" s="11">
+      <c r="B152" s="6">
         <v>150</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="11" t="s">
+      <c r="A153" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B153" s="11">
+      <c r="B153" s="6">
         <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="11" t="s">
+      <c r="A154" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B154" s="11">
+      <c r="B154" s="6">
         <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="11" t="s">
+      <c r="A155" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B155" s="11">
+      <c r="B155" s="6">
         <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="11" t="s">
+      <c r="A156" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="B156" s="11">
+      <c r="B156" s="6">
         <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="11" t="s">
+      <c r="A157" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B157" s="11">
+      <c r="B157" s="6">
         <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="11" t="s">
+      <c r="A158" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B158" s="11">
+      <c r="B158" s="6">
         <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="11" t="s">
+      <c r="A159" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B159" s="11">
+      <c r="B159" s="6">
         <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="11" t="s">
+      <c r="A160" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B160" s="11">
+      <c r="B160" s="6">
         <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="11" t="s">
+      <c r="A161" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="B161" s="11">
+      <c r="B161" s="6">
         <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="11" t="s">
+      <c r="A162" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B162" s="11">
+      <c r="B162" s="6">
         <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="11" t="s">
+      <c r="A163" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="B163" s="11">
+      <c r="B163" s="6">
         <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="11" t="s">
+      <c r="A164" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="B164" s="11">
+      <c r="B164" s="6">
         <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="11" t="s">
+      <c r="A165" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="B165" s="11">
+      <c r="B165" s="6">
         <v>163</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>